--- a/Assets/Resources/story/3.xlsx
+++ b/Assets/Resources/story/3.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\Resources\story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\case_galgame\Assets\Resources\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E52D6-B494-4B00-B498-8CD9A17DF1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A5C31-7366-463A-BE2E-13824C1B5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12746" yWindow="3000" windowWidth="11014" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="3090" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -78,10 +87,24 @@
     <t>End of story</t>
   </si>
   <si>
-    <t>Here is choice2.</t>
+    <t>LastBGImg</t>
+  </si>
+  <si>
+    <t>LastBGM</t>
+  </si>
+  <si>
+    <t>LastX1</t>
+  </si>
+  <si>
+    <t>LastX2</t>
+  </si>
+  <si>
+    <t>Here is choice 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -97,11 +120,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,17 +144,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,20 +474,29 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -488,18 +516,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="I3" t="s">
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -510,13 +538,31 @@
       <c r="L3" t="s">
         <v>15</v>
       </c>
+      <c r="M3">
+        <f>IF(E2&lt;&gt;"",E2,M2)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>IF(F2&lt;&gt;"",F2,N2)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>IF(H2&lt;&gt;"",H2,O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(K2&lt;&gt;"",K2,P2)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/story/3.xlsx
+++ b/Assets/Resources/story/3.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\case_galgame\Assets\Resources\story\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A5C31-7366-463A-BE2E-13824C1B5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="3090" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -57,7 +52,7 @@
     <t>Action1</t>
   </si>
   <si>
-    <t>x1</t>
+    <t>X1</t>
   </si>
   <si>
     <t>Character1</t>
@@ -66,76 +61,430 @@
     <t>Action2</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>X2</t>
   </si>
   <si>
     <t>Character2</t>
   </si>
   <si>
+    <t>LastBGImg</t>
+  </si>
+  <si>
+    <t>LastBGM</t>
+  </si>
+  <si>
+    <t>LastX1</t>
+  </si>
+  <si>
+    <t>LastX2</t>
+  </si>
+  <si>
     <t>Annie</t>
   </si>
   <si>
+    <t>Here is Choice2!</t>
+  </si>
+  <si>
     <t>appearAt</t>
   </si>
   <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Yes!</t>
+  </si>
+  <si>
+    <t>おはよう</t>
+  </si>
+  <si>
+    <t>moveTo</t>
+  </si>
+  <si>
+    <t>こんばんは</t>
+  </si>
+  <si>
+    <t>GoodBye!</t>
+  </si>
+  <si>
     <t>disappear</t>
   </si>
   <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>End of story</t>
-  </si>
-  <si>
-    <t>LastBGImg</t>
-  </si>
-  <si>
-    <t>LastBGM</t>
-  </si>
-  <si>
-    <t>LastX1</t>
-  </si>
-  <si>
-    <t>LastX2</t>
-  </si>
-  <si>
-    <t>Here is choice 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Bye!</t>
+  </si>
+  <si>
+    <t>衬衫的价格是</t>
+  </si>
+  <si>
+    <t>九镑十五便士</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>choice1</t>
+  </si>
+  <si>
+    <t>choice2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,33 +492,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,38 +822,38 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -244,12 +883,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,66 +918,40 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -352,20 +965,38 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -418,26 +1049,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <cols>
+    <col min="1" max="1" width="7.59090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="7.59090909090909" customWidth="1"/>
+    <col min="4" max="4" width="8.59090909090909" customWidth="1"/>
+    <col min="5" max="5" width="6.59090909090909" customWidth="1"/>
+    <col min="6" max="6" width="4.59090909090909" customWidth="1"/>
+    <col min="7" max="7" width="10.6818181818182" customWidth="1"/>
+    <col min="8" max="8" width="5.59090909090909" customWidth="1"/>
+    <col min="9" max="9" width="11.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6818181818182" customWidth="1"/>
+    <col min="11" max="11" width="5.59090909090909" customWidth="1"/>
+    <col min="12" max="12" width="11.8181818181818" customWidth="1"/>
+    <col min="13" max="13" width="10.6818181818182" customWidth="1"/>
+    <col min="14" max="14" width="8.59090909090909" customWidth="1"/>
+    <col min="15" max="16" width="12.9545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,68 +1118,65 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M3">
         <f>IF(E2&lt;&gt;"",E2,M2)</f>
@@ -555,14 +1195,894 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>540</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M25" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N25" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O25" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P25" si="3">IF(K3&lt;&gt;"",K3,P3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>-540</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:16">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:16">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>540</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:16">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>-540</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:16">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:16">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:16">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>540</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:16">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>-540</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:16">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:16">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:16">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:16">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>540</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:16">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>-540</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:16">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:16">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>